--- a/empirics/modeldata/CETCstocks_byocc.xlsx
+++ b/empirics/modeldata/CETCstocks_byocc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>year</t>
   </si>
@@ -26,7 +26,19 @@
     <t>stock_occ</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>occ1d</t>
+  </si>
+  <si>
     <t>user_gr</t>
+  </si>
+  <si>
+    <t>occ1d</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>implied_usercost</t>
@@ -251,7 +263,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>8204459520</v>
+        <v>8204460032</v>
       </c>
     </row>
     <row r="17">
@@ -383,7 +395,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="1">
-        <v>47964721152</v>
+        <v>47964717056</v>
       </c>
     </row>
     <row r="29">
@@ -416,7 +428,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="1">
-        <v>156546891776</v>
+        <v>156546908160</v>
       </c>
     </row>
     <row r="32">
@@ -504,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="1">
-        <v>53649854464</v>
+        <v>53649846272</v>
       </c>
     </row>
     <row r="40">
@@ -537,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="1">
-        <v>162567979008</v>
+        <v>162567995392</v>
       </c>
     </row>
     <row r="43">
@@ -603,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="1">
-        <v>27919804416</v>
+        <v>27919806464</v>
       </c>
     </row>
     <row r="49">
@@ -625,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="1">
-        <v>59919699968</v>
+        <v>59919691776</v>
       </c>
     </row>
     <row r="51">
@@ -658,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="1">
-        <v>166025871360</v>
+        <v>166025887744</v>
       </c>
     </row>
     <row r="54">
@@ -724,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="1">
-        <v>32960016384</v>
+        <v>32960018432</v>
       </c>
     </row>
     <row r="60">
@@ -735,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="1">
-        <v>17130171392</v>
+        <v>17130172416</v>
       </c>
     </row>
     <row r="61">
@@ -746,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="1">
-        <v>69576753152</v>
+        <v>69576736768</v>
       </c>
     </row>
     <row r="62">
@@ -812,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="C67" s="1">
-        <v>25255591936</v>
+        <v>25255589888</v>
       </c>
     </row>
     <row r="68">
@@ -845,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="1">
-        <v>34173755392</v>
+        <v>34173757440</v>
       </c>
     </row>
     <row r="71">
@@ -867,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="1">
-        <v>79444680704</v>
+        <v>79444664320</v>
       </c>
     </row>
     <row r="73">
@@ -922,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="C77" s="1">
-        <v>27539861504</v>
+        <v>27539859456</v>
       </c>
     </row>
     <row r="78">
@@ -933,7 +945,7 @@
         <v>11</v>
       </c>
       <c r="C78" s="1">
-        <v>27072114688</v>
+        <v>27072112640</v>
       </c>
     </row>
     <row r="79">
@@ -988,7 +1000,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="1">
-        <v>96157081600</v>
+        <v>96157057024</v>
       </c>
     </row>
     <row r="84">
@@ -1043,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="C88" s="1">
-        <v>29847334912</v>
+        <v>29847332864</v>
       </c>
     </row>
     <row r="89">
@@ -1054,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="C89" s="1">
-        <v>28091619328</v>
+        <v>28091615232</v>
       </c>
     </row>
     <row r="90">
@@ -1109,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="1">
-        <v>100352008192</v>
+        <v>100351975424</v>
       </c>
     </row>
     <row r="95">
@@ -1164,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="C99" s="1">
-        <v>30929133568</v>
+        <v>30929131520</v>
       </c>
     </row>
     <row r="100">
@@ -1175,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="C100" s="1">
-        <v>30987970560</v>
+        <v>30987966464</v>
       </c>
     </row>
     <row r="101">
@@ -1230,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="1">
-        <v>112086081536</v>
+        <v>112086048768</v>
       </c>
     </row>
     <row r="106">
@@ -1274,7 +1286,7 @@
         <v>9</v>
       </c>
       <c r="C109" s="1">
-        <v>341681504</v>
+        <v>341681536</v>
       </c>
     </row>
     <row r="110">
@@ -1285,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="C110" s="1">
-        <v>32751601664</v>
+        <v>32751599616</v>
       </c>
     </row>
     <row r="111">
@@ -1296,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="C111" s="1">
-        <v>33701144576</v>
+        <v>33701138432</v>
       </c>
     </row>
     <row r="112">
@@ -1351,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="C116" s="1">
-        <v>116357259264</v>
+        <v>116357218304</v>
       </c>
     </row>
     <row r="117">
@@ -1406,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="C121" s="1">
-        <v>33973927936</v>
+        <v>33973925888</v>
       </c>
     </row>
     <row r="122">
@@ -1417,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="C122" s="1">
-        <v>39699951616</v>
+        <v>39699943424</v>
       </c>
     </row>
     <row r="123">
@@ -1461,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="C126" s="1">
-        <v>46993457152</v>
+        <v>46993461248</v>
       </c>
     </row>
     <row r="127">
@@ -1472,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="C127" s="1">
-        <v>140228804608</v>
+        <v>140228755456</v>
       </c>
     </row>
     <row r="128">
@@ -1494,7 +1506,7 @@
         <v>7</v>
       </c>
       <c r="C129" s="1">
-        <v>28174475264</v>
+        <v>28174473216</v>
       </c>
     </row>
     <row r="130">
@@ -1505,7 +1517,7 @@
         <v>8</v>
       </c>
       <c r="C130" s="1">
-        <v>225799880704</v>
+        <v>225799897088</v>
       </c>
     </row>
     <row r="131">
@@ -1527,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="C132" s="1">
-        <v>35822194688</v>
+        <v>35822190592</v>
       </c>
     </row>
     <row r="133">
@@ -1538,7 +1550,7 @@
         <v>11</v>
       </c>
       <c r="C133" s="1">
-        <v>43541147648</v>
+        <v>43541135360</v>
       </c>
     </row>
     <row r="134">
@@ -1571,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="C136" s="1">
-        <v>55593189376</v>
+        <v>55593193472</v>
       </c>
     </row>
     <row r="137">
@@ -1582,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="C137" s="1">
-        <v>57946832896</v>
+        <v>57946836992</v>
       </c>
     </row>
     <row r="138">
@@ -1593,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="C138" s="1">
-        <v>166484672512</v>
+        <v>166484623360</v>
       </c>
     </row>
     <row r="139">
@@ -1615,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="C140" s="1">
-        <v>27265316864</v>
+        <v>27265314816</v>
       </c>
     </row>
     <row r="141">
@@ -1626,7 +1638,7 @@
         <v>8</v>
       </c>
       <c r="C141" s="1">
-        <v>243654721536</v>
+        <v>243654737920</v>
       </c>
     </row>
     <row r="142">
@@ -1648,7 +1660,7 @@
         <v>10</v>
       </c>
       <c r="C143" s="1">
-        <v>40076034048</v>
+        <v>40076029952</v>
       </c>
     </row>
     <row r="144">
@@ -1659,7 +1671,7 @@
         <v>11</v>
       </c>
       <c r="C144" s="1">
-        <v>48422801408</v>
+        <v>48422789120</v>
       </c>
     </row>
     <row r="145">
@@ -1670,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="1">
-        <v>270074429440</v>
+        <v>270074413056</v>
       </c>
     </row>
     <row r="146">
@@ -1692,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="C147" s="1">
-        <v>66331070464</v>
+        <v>66331074560</v>
       </c>
     </row>
     <row r="148">
@@ -1714,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="C149" s="1">
-        <v>210653691904</v>
+        <v>210653626368</v>
       </c>
     </row>
     <row r="150">
@@ -1736,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="C151" s="1">
-        <v>24836225024</v>
+        <v>24836222976</v>
       </c>
     </row>
     <row r="152">
@@ -1747,7 +1759,7 @@
         <v>8</v>
       </c>
       <c r="C152" s="1">
-        <v>266673192960</v>
+        <v>266673209344</v>
       </c>
     </row>
     <row r="153">
@@ -1758,7 +1770,7 @@
         <v>9</v>
       </c>
       <c r="C153" s="1">
-        <v>531595072</v>
+        <v>531595104</v>
       </c>
     </row>
     <row r="154">
@@ -1769,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="C154" s="1">
-        <v>46245990400</v>
+        <v>46245986304</v>
       </c>
     </row>
     <row r="155">
@@ -1780,7 +1792,7 @@
         <v>11</v>
       </c>
       <c r="C155" s="1">
-        <v>53144195072</v>
+        <v>53144178688</v>
       </c>
     </row>
     <row r="156">
@@ -1791,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="C156" s="1">
-        <v>343139581952</v>
+        <v>343139549184</v>
       </c>
     </row>
     <row r="157">
@@ -1835,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="C160" s="1">
-        <v>259539877888</v>
+        <v>259539795968</v>
       </c>
     </row>
     <row r="161">
@@ -1857,7 +1869,7 @@
         <v>7</v>
       </c>
       <c r="C162" s="1">
-        <v>23414837248</v>
+        <v>23414833152</v>
       </c>
     </row>
     <row r="163">
@@ -1890,7 +1902,7 @@
         <v>10</v>
       </c>
       <c r="C165" s="1">
-        <v>46144073728</v>
+        <v>46144065536</v>
       </c>
     </row>
     <row r="166">
@@ -1901,7 +1913,7 @@
         <v>11</v>
       </c>
       <c r="C166" s="1">
-        <v>57506136064</v>
+        <v>57506119680</v>
       </c>
     </row>
     <row r="167">
@@ -1912,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C167" s="1">
-        <v>417206140928</v>
+        <v>417206108160</v>
       </c>
     </row>
     <row r="168">
@@ -1956,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C171" s="1">
-        <v>307716784128</v>
+        <v>307716685824</v>
       </c>
     </row>
     <row r="172">
@@ -1978,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="C173" s="1">
-        <v>26473947136</v>
+        <v>26473943040</v>
       </c>
     </row>
     <row r="174">
@@ -2011,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="C176" s="1">
-        <v>46653460480</v>
+        <v>46653456384</v>
       </c>
     </row>
     <row r="177">
@@ -2022,7 +2034,7 @@
         <v>11</v>
       </c>
       <c r="C177" s="1">
-        <v>65622155264</v>
+        <v>65622134784</v>
       </c>
     </row>
     <row r="178">
@@ -2033,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="C178" s="1">
-        <v>478266720256</v>
+        <v>478266687488</v>
       </c>
     </row>
     <row r="179">
@@ -2077,7 +2089,7 @@
         <v>5</v>
       </c>
       <c r="C182" s="1">
-        <v>351358451712</v>
+        <v>351358320640</v>
       </c>
     </row>
     <row r="183">
@@ -2099,7 +2111,7 @@
         <v>7</v>
       </c>
       <c r="C184" s="1">
-        <v>29229400064</v>
+        <v>29229395968</v>
       </c>
     </row>
     <row r="185">
@@ -2132,7 +2144,7 @@
         <v>10</v>
       </c>
       <c r="C187" s="1">
-        <v>50554834944</v>
+        <v>50554830848</v>
       </c>
     </row>
     <row r="188">
@@ -2143,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="C188" s="1">
-        <v>69560557568</v>
+        <v>69560541184</v>
       </c>
     </row>
     <row r="189">
@@ -2154,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="C189" s="1">
-        <v>548709367808</v>
+        <v>548709335040</v>
       </c>
     </row>
     <row r="190">
@@ -2198,7 +2210,7 @@
         <v>5</v>
       </c>
       <c r="C193" s="1">
-        <v>373108899840</v>
+        <v>373108768768</v>
       </c>
     </row>
     <row r="194">
@@ -2220,7 +2232,7 @@
         <v>7</v>
       </c>
       <c r="C195" s="1">
-        <v>28327274496</v>
+        <v>28327270400</v>
       </c>
     </row>
     <row r="196">
@@ -2253,7 +2265,7 @@
         <v>10</v>
       </c>
       <c r="C198" s="1">
-        <v>52661387264</v>
+        <v>52661379072</v>
       </c>
     </row>
     <row r="199">
@@ -2264,7 +2276,7 @@
         <v>11</v>
       </c>
       <c r="C199" s="1">
-        <v>67277430784</v>
+        <v>67277414400</v>
       </c>
     </row>
     <row r="200">
@@ -2275,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="C200" s="1">
-        <v>514586542080</v>
+        <v>514586509312</v>
       </c>
     </row>
     <row r="201">
@@ -2319,7 +2331,7 @@
         <v>5</v>
       </c>
       <c r="C204" s="1">
-        <v>484254089216</v>
+        <v>484253892608</v>
       </c>
     </row>
     <row r="205">
@@ -2341,7 +2353,7 @@
         <v>7</v>
       </c>
       <c r="C206" s="1">
-        <v>33218627584</v>
+        <v>33218621440</v>
       </c>
     </row>
     <row r="207">
@@ -2374,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="C209" s="1">
-        <v>66718208000</v>
+        <v>66718195712</v>
       </c>
     </row>
     <row r="210">
@@ -2385,7 +2397,7 @@
         <v>11</v>
       </c>
       <c r="C210" s="1">
-        <v>65869836288</v>
+        <v>65869819904</v>
       </c>
     </row>
     <row r="211">
@@ -2440,7 +2452,7 @@
         <v>5</v>
       </c>
       <c r="C215" s="1">
-        <v>526716764160</v>
+        <v>526716534784</v>
       </c>
     </row>
     <row r="216">
@@ -2462,7 +2474,7 @@
         <v>7</v>
       </c>
       <c r="C217" s="1">
-        <v>31882199040</v>
+        <v>31882192896</v>
       </c>
     </row>
     <row r="218">
@@ -2495,7 +2507,7 @@
         <v>10</v>
       </c>
       <c r="C220" s="1">
-        <v>66343120896</v>
+        <v>66343108608</v>
       </c>
     </row>
     <row r="221">
@@ -2506,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="C221" s="1">
-        <v>68632039424</v>
+        <v>68632023040</v>
       </c>
     </row>
     <row r="222">
@@ -2561,7 +2573,7 @@
         <v>5</v>
       </c>
       <c r="C226" s="1">
-        <v>564318109696</v>
+        <v>564317847552</v>
       </c>
     </row>
     <row r="227">
@@ -2583,7 +2595,7 @@
         <v>7</v>
       </c>
       <c r="C228" s="1">
-        <v>35593650176</v>
+        <v>35593641984</v>
       </c>
     </row>
     <row r="229">
@@ -2616,7 +2628,7 @@
         <v>10</v>
       </c>
       <c r="C231" s="1">
-        <v>68802707456</v>
+        <v>68802691072</v>
       </c>
     </row>
     <row r="232">
@@ -2627,7 +2639,7 @@
         <v>11</v>
       </c>
       <c r="C232" s="1">
-        <v>72703320064</v>
+        <v>72703303680</v>
       </c>
     </row>
     <row r="233">
@@ -2682,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="C237" s="1">
-        <v>613020663808</v>
+        <v>613020401664</v>
       </c>
     </row>
     <row r="238">
@@ -2704,7 +2716,7 @@
         <v>7</v>
       </c>
       <c r="C239" s="1">
-        <v>36022181888</v>
+        <v>36022173696</v>
       </c>
     </row>
     <row r="240">
@@ -2737,7 +2749,7 @@
         <v>10</v>
       </c>
       <c r="C242" s="1">
-        <v>68716507136</v>
+        <v>68716490752</v>
       </c>
     </row>
     <row r="243">
@@ -2748,7 +2760,7 @@
         <v>11</v>
       </c>
       <c r="C243" s="1">
-        <v>77479870464</v>
+        <v>77479845888</v>
       </c>
     </row>
     <row r="244">
@@ -2803,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="C248" s="1">
-        <v>664265818112</v>
+        <v>664265555968</v>
       </c>
     </row>
     <row r="249">
@@ -2825,7 +2837,7 @@
         <v>7</v>
       </c>
       <c r="C250" s="1">
-        <v>38247534592</v>
+        <v>38247526400</v>
       </c>
     </row>
     <row r="251">
@@ -2858,7 +2870,7 @@
         <v>10</v>
       </c>
       <c r="C253" s="1">
-        <v>71170891776</v>
+        <v>71170875392</v>
       </c>
     </row>
     <row r="254">
@@ -2869,7 +2881,7 @@
         <v>11</v>
       </c>
       <c r="C254" s="1">
-        <v>82679529472</v>
+        <v>82679504896</v>
       </c>
     </row>
     <row r="255">
@@ -2924,7 +2936,7 @@
         <v>5</v>
       </c>
       <c r="C259" s="1">
-        <v>723862290432</v>
+        <v>723862028288</v>
       </c>
     </row>
     <row r="260">
@@ -2946,7 +2958,7 @@
         <v>7</v>
       </c>
       <c r="C261" s="1">
-        <v>40810078208</v>
+        <v>40810070016</v>
       </c>
     </row>
     <row r="262">
@@ -2979,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="C264" s="1">
-        <v>67465830400</v>
+        <v>67465814016</v>
       </c>
     </row>
     <row r="265">
@@ -2990,7 +3002,7 @@
         <v>11</v>
       </c>
       <c r="C265" s="1">
-        <v>86112772096</v>
+        <v>86112739328</v>
       </c>
     </row>
     <row r="266">
@@ -3045,7 +3057,7 @@
         <v>5</v>
       </c>
       <c r="C270" s="1">
-        <v>725463072768</v>
+        <v>725462876160</v>
       </c>
     </row>
     <row r="271">
@@ -3056,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="C271" s="1">
-        <v>229872304128</v>
+        <v>229872320512</v>
       </c>
     </row>
     <row r="272">
@@ -3067,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="C272" s="1">
-        <v>40423432192</v>
+        <v>40423428096</v>
       </c>
     </row>
     <row r="273">
@@ -3100,7 +3112,7 @@
         <v>10</v>
       </c>
       <c r="C275" s="1">
-        <v>60535828480</v>
+        <v>60535816192</v>
       </c>
     </row>
     <row r="276">
@@ -3111,7 +3123,7 @@
         <v>11</v>
       </c>
       <c r="C276" s="1">
-        <v>80223289344</v>
+        <v>80223256576</v>
       </c>
     </row>
     <row r="277">
@@ -3166,7 +3178,7 @@
         <v>5</v>
       </c>
       <c r="C281" s="1">
-        <v>788131872768</v>
+        <v>788131676160</v>
       </c>
     </row>
     <row r="282">
@@ -3177,7 +3189,7 @@
         <v>6</v>
       </c>
       <c r="C282" s="1">
-        <v>258707668992</v>
+        <v>258707685376</v>
       </c>
     </row>
     <row r="283">
@@ -3188,7 +3200,7 @@
         <v>7</v>
       </c>
       <c r="C283" s="1">
-        <v>39759728640</v>
+        <v>39759724544</v>
       </c>
     </row>
     <row r="284">
@@ -3221,7 +3233,7 @@
         <v>10</v>
       </c>
       <c r="C286" s="1">
-        <v>60090540032</v>
+        <v>60090527744</v>
       </c>
     </row>
     <row r="287">
@@ -3232,7 +3244,7 @@
         <v>11</v>
       </c>
       <c r="C287" s="1">
-        <v>78661820416</v>
+        <v>78661787648</v>
       </c>
     </row>
     <row r="288">
@@ -3287,7 +3299,7 @@
         <v>5</v>
       </c>
       <c r="C292" s="1">
-        <v>808404123648</v>
+        <v>808403927040</v>
       </c>
     </row>
     <row r="293">
@@ -3298,7 +3310,7 @@
         <v>6</v>
       </c>
       <c r="C293" s="1">
-        <v>265361539072</v>
+        <v>265361555456</v>
       </c>
     </row>
     <row r="294">
@@ -3309,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="C294" s="1">
-        <v>46248935424</v>
+        <v>46248927232</v>
       </c>
     </row>
     <row r="295">
@@ -3342,7 +3354,7 @@
         <v>10</v>
       </c>
       <c r="C297" s="1">
-        <v>73771810816</v>
+        <v>73771794432</v>
       </c>
     </row>
     <row r="298">
@@ -3353,7 +3365,7 @@
         <v>11</v>
       </c>
       <c r="C298" s="1">
-        <v>85694783488</v>
+        <v>85694750720</v>
       </c>
     </row>
     <row r="299">
@@ -3364,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="C299" s="1">
-        <v>1281725169664</v>
+        <v>1281725038592</v>
       </c>
     </row>
     <row r="300">
@@ -3408,7 +3420,7 @@
         <v>5</v>
       </c>
       <c r="C303" s="1">
-        <v>845507657728</v>
+        <v>845507461120</v>
       </c>
     </row>
     <row r="304">
@@ -3430,7 +3442,7 @@
         <v>7</v>
       </c>
       <c r="C305" s="1">
-        <v>46943236096</v>
+        <v>46943227904</v>
       </c>
     </row>
     <row r="306">
@@ -3463,7 +3475,7 @@
         <v>10</v>
       </c>
       <c r="C308" s="1">
-        <v>71577878528</v>
+        <v>71577862144</v>
       </c>
     </row>
     <row r="309">
@@ -3474,7 +3486,7 @@
         <v>11</v>
       </c>
       <c r="C309" s="1">
-        <v>98829918208</v>
+        <v>98829877248</v>
       </c>
     </row>
     <row r="310">
@@ -3529,7 +3541,7 @@
         <v>5</v>
       </c>
       <c r="C314" s="1">
-        <v>879101083648</v>
+        <v>879100887040</v>
       </c>
     </row>
     <row r="315">
@@ -3551,7 +3563,7 @@
         <v>7</v>
       </c>
       <c r="C316" s="1">
-        <v>44722708480</v>
+        <v>44722704384</v>
       </c>
     </row>
     <row r="317">
@@ -3584,7 +3596,7 @@
         <v>10</v>
       </c>
       <c r="C319" s="1">
-        <v>65823354880</v>
+        <v>65823342592</v>
       </c>
     </row>
     <row r="320">
@@ -3595,7 +3607,7 @@
         <v>11</v>
       </c>
       <c r="C320" s="1">
-        <v>107020009472</v>
+        <v>107019968512</v>
       </c>
     </row>
     <row r="321">
@@ -3650,7 +3662,7 @@
         <v>5</v>
       </c>
       <c r="C325" s="1">
-        <v>915265159168</v>
+        <v>915264962560</v>
       </c>
     </row>
     <row r="326">
@@ -3672,7 +3684,7 @@
         <v>7</v>
       </c>
       <c r="C327" s="1">
-        <v>53124743168</v>
+        <v>53124734976</v>
       </c>
     </row>
     <row r="328">
@@ -3694,7 +3706,7 @@
         <v>9</v>
       </c>
       <c r="C329" s="1">
-        <v>6550104064</v>
+        <v>6550104576</v>
       </c>
     </row>
     <row r="330">
@@ -3705,7 +3717,7 @@
         <v>10</v>
       </c>
       <c r="C330" s="1">
-        <v>72882823168</v>
+        <v>72882806784</v>
       </c>
     </row>
     <row r="331">
@@ -3716,7 +3728,7 @@
         <v>11</v>
       </c>
       <c r="C331" s="1">
-        <v>115471360000</v>
+        <v>115471310848</v>
       </c>
     </row>
     <row r="332">
@@ -3771,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="C336" s="1">
-        <v>958570233856</v>
+        <v>958569971712</v>
       </c>
     </row>
     <row r="337">
@@ -3793,7 +3805,7 @@
         <v>7</v>
       </c>
       <c r="C338" s="1">
-        <v>65343283200</v>
+        <v>65343270912</v>
       </c>
     </row>
     <row r="339">
@@ -3804,7 +3816,7 @@
         <v>8</v>
       </c>
       <c r="C339" s="1">
-        <v>543455739904</v>
+        <v>543455707136</v>
       </c>
     </row>
     <row r="340">
@@ -3826,7 +3838,7 @@
         <v>10</v>
       </c>
       <c r="C341" s="1">
-        <v>62461186048</v>
+        <v>62461173760</v>
       </c>
     </row>
     <row r="342">
@@ -3837,7 +3849,7 @@
         <v>11</v>
       </c>
       <c r="C342" s="1">
-        <v>130510200832</v>
+        <v>130510151680</v>
       </c>
     </row>
     <row r="343">
@@ -3881,7 +3893,7 @@
         <v>4</v>
       </c>
       <c r="C346" s="1">
-        <v>571581530112</v>
+        <v>571581464576</v>
       </c>
     </row>
     <row r="347">
@@ -3892,7 +3904,7 @@
         <v>5</v>
       </c>
       <c r="C347" s="1">
-        <v>984756256768</v>
+        <v>984755929088</v>
       </c>
     </row>
     <row r="348">
@@ -3903,7 +3915,7 @@
         <v>6</v>
       </c>
       <c r="C348" s="1">
-        <v>347928330240</v>
+        <v>347928297472</v>
       </c>
     </row>
     <row r="349">
@@ -3914,7 +3926,7 @@
         <v>7</v>
       </c>
       <c r="C349" s="1">
-        <v>67337355264</v>
+        <v>67337342976</v>
       </c>
     </row>
     <row r="350">
@@ -3925,7 +3937,7 @@
         <v>8</v>
       </c>
       <c r="C350" s="1">
-        <v>553708486656</v>
+        <v>553708421120</v>
       </c>
     </row>
     <row r="351">
@@ -3947,7 +3959,7 @@
         <v>10</v>
       </c>
       <c r="C352" s="1">
-        <v>63990616064</v>
+        <v>63990603776</v>
       </c>
     </row>
     <row r="353">
@@ -3958,7 +3970,7 @@
         <v>11</v>
       </c>
       <c r="C353" s="1">
-        <v>139598168064</v>
+        <v>139598118912</v>
       </c>
     </row>
   </sheetData>
@@ -3972,13 +3984,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -7864,18 +7876,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>1985</v>
@@ -7886,7 +7898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1985</v>
@@ -7897,7 +7909,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>1985</v>
@@ -7908,7 +7920,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>1985</v>
@@ -7919,7 +7931,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>1985</v>
@@ -7930,7 +7942,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>1985</v>
@@ -7941,7 +7953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>1985</v>
@@ -7952,7 +7964,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>1985</v>
@@ -7963,7 +7975,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>1985</v>
@@ -7974,7 +7986,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>1985</v>
@@ -7985,7 +7997,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>1985</v>
@@ -8007,24 +8019,24 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
         <v>1986</v>
       </c>
       <c r="C14" s="1">
-        <v>0.7684141993522644</v>
+        <v>0.91381567716598511</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>1986</v>
       </c>
       <c r="C15" s="1">
-        <v>0.7285541296005249</v>
+        <v>0.93263906240463257</v>
       </c>
     </row>
     <row r="16">
@@ -8040,112 +8052,112 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
         <v>1986</v>
       </c>
       <c r="C17" s="1">
-        <v>0.9884917140007019</v>
+        <v>0.7285541296005249</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1">
         <v>1986</v>
       </c>
       <c r="C18" s="1">
-        <v>0.74434047937393188</v>
+        <v>0.77397507429122925</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
         <v>1986</v>
       </c>
       <c r="C19" s="1">
-        <v>0.93263906240463257</v>
+        <v>0.99763906002044678</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
         <v>1986</v>
       </c>
       <c r="C20" s="1">
-        <v>0.91381567716598511</v>
+        <v>0.7684141993522644</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1">
         <v>1986</v>
       </c>
       <c r="C21" s="1">
-        <v>0.97494047880172729</v>
+        <v>0.74434047937393188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <v>1986</v>
       </c>
       <c r="C22" s="1">
-        <v>0.77397507429122925</v>
+        <v>0.9884917140007019</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1">
         <v>1986</v>
       </c>
       <c r="C23" s="1">
-        <v>0.99763894081115723</v>
+        <v>0.97494047880172729</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1">
         <v>1987</v>
       </c>
       <c r="C24" s="1">
-        <v>0.79592692852020264</v>
+        <v>0.92835420370101929</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>1987</v>
       </c>
       <c r="C25" s="1">
-        <v>0.94331181049346924</v>
+        <v>0.88959592580795288</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1">
         <v>1987</v>
       </c>
       <c r="C26" s="1">
-        <v>0.65837907791137695</v>
+        <v>0.78407377004623413</v>
       </c>
     </row>
     <row r="27">
@@ -8161,13 +8173,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1">
         <v>1987</v>
       </c>
       <c r="C28" s="1">
-        <v>0.82790660858154297</v>
+        <v>0.79592692852020264</v>
       </c>
     </row>
     <row r="29">
@@ -8178,62 +8190,62 @@
         <v>1987</v>
       </c>
       <c r="C29" s="1">
-        <v>0.90103840827941895</v>
+        <v>0.90103846788406372</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1">
         <v>1987</v>
       </c>
       <c r="C30" s="1">
-        <v>0.78407377004623413</v>
+        <v>0.91554594039916992</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1">
         <v>1987</v>
       </c>
       <c r="C31" s="1">
-        <v>0.91554594039916992</v>
+        <v>0.86220896244049072</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1">
         <v>1987</v>
       </c>
       <c r="C32" s="1">
-        <v>0.88959592580795288</v>
+        <v>0.65837907791137695</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1">
         <v>1987</v>
       </c>
       <c r="C33" s="1">
-        <v>0.86220896244049072</v>
+        <v>0.82790648937225342</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1">
         <v>1987</v>
       </c>
       <c r="C34" s="1">
-        <v>0.92835420370101929</v>
+        <v>0.94331181049346924</v>
       </c>
     </row>
     <row r="35">
@@ -8249,46 +8261,46 @@
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1">
         <v>1988</v>
       </c>
       <c r="C36" s="1">
-        <v>0.82911014556884766</v>
+        <v>0.8100542426109314</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1">
         <v>1988</v>
       </c>
       <c r="C37" s="1">
-        <v>0.79051321744918823</v>
+        <v>0.70980381965637207</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1">
         <v>1988</v>
       </c>
       <c r="C38" s="1">
-        <v>0.78640204668045044</v>
+        <v>0.84789383411407471</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
         <v>1988</v>
       </c>
       <c r="C39" s="1">
-        <v>0.81193816661834717</v>
+        <v>0.78745651245117188</v>
       </c>
     </row>
     <row r="40">
@@ -8304,409 +8316,409 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1">
         <v>1988</v>
       </c>
       <c r="C41" s="1">
-        <v>0.70980376005172729</v>
+        <v>0.77278900146484375</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B42" s="1">
         <v>1988</v>
       </c>
       <c r="C42" s="1">
-        <v>0.84789383411407471</v>
+        <v>0.78640204668045044</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" s="1">
         <v>1988</v>
       </c>
       <c r="C43" s="1">
-        <v>0.8100542426109314</v>
+        <v>0.82911014556884766</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1">
         <v>1988</v>
       </c>
       <c r="C44" s="1">
-        <v>0.78745651245117188</v>
+        <v>0.79051321744918823</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1">
         <v>1988</v>
       </c>
       <c r="C45" s="1">
-        <v>0.77278900146484375</v>
+        <v>0.81193810701370239</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46" s="1">
         <v>1989</v>
       </c>
       <c r="C46" s="1">
-        <v>0.72371482849121094</v>
+        <v>0.71831315755844116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1">
         <v>1989</v>
       </c>
       <c r="C47" s="1">
-        <v>0.78142058849334717</v>
+        <v>0.67728632688522339</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1">
         <v>1989</v>
       </c>
       <c r="C48" s="1">
-        <v>0.77590328454971313</v>
+        <v>0.79068946838378906</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B49" s="1">
         <v>1989</v>
       </c>
       <c r="C49" s="1">
-        <v>0.67728632688522339</v>
+        <v>0.78805047273635864</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1">
         <v>1989</v>
       </c>
       <c r="C50" s="1">
-        <v>0.79068946838378906</v>
+        <v>0.77590328454971313</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B51" s="1">
         <v>1989</v>
       </c>
       <c r="C51" s="1">
-        <v>0.71831321716308594</v>
+        <v>0.74784809350967407</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B52" s="1">
         <v>1989</v>
       </c>
       <c r="C52" s="1">
-        <v>0.78805047273635864</v>
+        <v>0.78142058849334717</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B53" s="1">
         <v>1989</v>
       </c>
       <c r="C53" s="1">
-        <v>0.81462550163269043</v>
+        <v>0.71341449022293091</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B54" s="1">
         <v>1989</v>
       </c>
       <c r="C54" s="1">
-        <v>0.7887386679649353</v>
+        <v>0.81462556123733521</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" s="1">
         <v>1989</v>
       </c>
       <c r="C55" s="1">
-        <v>0.71341449022293091</v>
+        <v>0.72371494770050049</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B56" s="1">
         <v>1989</v>
       </c>
       <c r="C56" s="1">
-        <v>0.74784809350967407</v>
+        <v>0.78873854875564575</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B57" s="1">
         <v>1990</v>
       </c>
       <c r="C57" s="1">
-        <v>0.64651936292648315</v>
+        <v>0.7587401270866394</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1">
         <v>1990</v>
       </c>
       <c r="C58" s="1">
-        <v>0.7587401270866394</v>
+        <v>0.66670531034469604</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B59" s="1">
         <v>1990</v>
       </c>
       <c r="C59" s="1">
-        <v>0.74932914972305298</v>
+        <v>0.64651930332183838</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B60" s="1">
         <v>1990</v>
       </c>
       <c r="C60" s="1">
-        <v>0.69202834367752075</v>
+        <v>0.60686230659484863</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B61" s="1">
         <v>1990</v>
       </c>
       <c r="C61" s="1">
-        <v>0.60686230659484863</v>
+        <v>0.74932914972305298</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B62" s="1">
         <v>1990</v>
       </c>
       <c r="C62" s="1">
-        <v>0.77156305313110352</v>
+        <v>0.72380512952804565</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B63" s="1">
         <v>1990</v>
       </c>
       <c r="C63" s="1">
-        <v>0.66670536994934082</v>
+        <v>0.77156305313110352</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B64" s="1">
         <v>1990</v>
       </c>
       <c r="C64" s="1">
-        <v>0.72380512952804565</v>
+        <v>0.6920284628868103</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" s="1">
         <v>1990</v>
       </c>
       <c r="C65" s="1">
-        <v>0.73978835344314575</v>
+        <v>0.66908168792724609</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B66" s="1">
         <v>1990</v>
       </c>
       <c r="C66" s="1">
-        <v>0.66117227077484131</v>
+        <v>0.73978835344314575</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B67" s="1">
         <v>1990</v>
       </c>
       <c r="C67" s="1">
-        <v>0.66908168792724609</v>
+        <v>0.66117238998413086</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B68" s="1">
         <v>1991</v>
       </c>
       <c r="C68" s="1">
-        <v>0.57516783475875854</v>
+        <v>0.7184760570526123</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69" s="1">
         <v>1991</v>
       </c>
       <c r="C69" s="1">
-        <v>0.61440664529800415</v>
+        <v>0.57391685247421265</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B70" s="1">
         <v>1991</v>
       </c>
       <c r="C70" s="1">
-        <v>0.67643916606903076</v>
+        <v>0.57516783475875854</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1">
         <v>1991</v>
       </c>
       <c r="C71" s="1">
-        <v>0.63236469030380249</v>
+        <v>0.69479340314865112</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B72" s="1">
         <v>1991</v>
       </c>
       <c r="C72" s="1">
-        <v>0.69479340314865112</v>
+        <v>0.58054941892623901</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B73" s="1">
         <v>1991</v>
       </c>
       <c r="C73" s="1">
-        <v>0.58643543720245361</v>
+        <v>0.67643916606903076</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B74" s="1">
         <v>1991</v>
       </c>
       <c r="C74" s="1">
-        <v>0.58054935932159424</v>
+        <v>0.58643555641174316</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B75" s="1">
         <v>1991</v>
       </c>
       <c r="C75" s="1">
-        <v>0.73015725612640381</v>
+        <v>0.61440664529800415</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B76" s="1">
         <v>1991</v>
       </c>
       <c r="C76" s="1">
-        <v>0.57391685247421265</v>
+        <v>0.73015725612640381</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B77" s="1">
         <v>1991</v>
       </c>
       <c r="C77" s="1">
-        <v>0.7184760570526123</v>
+        <v>0.63236474990844727</v>
       </c>
     </row>
     <row r="78">
@@ -8722,112 +8734,112 @@
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B79" s="1">
         <v>1992</v>
       </c>
       <c r="C79" s="1">
-        <v>0.64912557601928711</v>
+        <v>0.71335881948471069</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B80" s="1">
         <v>1992</v>
       </c>
       <c r="C80" s="1">
-        <v>0.5679856538772583</v>
+        <v>0.71077781915664673</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B81" s="1">
         <v>1992</v>
       </c>
       <c r="C81" s="1">
-        <v>0.65124309062957764</v>
+        <v>0.54558885097503662</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B82" s="1">
         <v>1992</v>
       </c>
       <c r="C82" s="1">
-        <v>0.58402794599533081</v>
+        <v>0.56798577308654785</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B83" s="1">
         <v>1992</v>
       </c>
       <c r="C83" s="1">
-        <v>0.71077781915664673</v>
+        <v>0.65124309062957764</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B84" s="1">
         <v>1992</v>
       </c>
       <c r="C84" s="1">
-        <v>0.72910964488983154</v>
+        <v>0.70735740661621094</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B85" s="1">
         <v>1992</v>
       </c>
       <c r="C85" s="1">
-        <v>0.54558885097503662</v>
+        <v>0.58402794599533081</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B86" s="1">
         <v>1992</v>
       </c>
       <c r="C86" s="1">
-        <v>0.70735740661621094</v>
+        <v>0.58232682943344116</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B87" s="1">
         <v>1992</v>
       </c>
       <c r="C87" s="1">
-        <v>0.71335881948471069</v>
+        <v>0.72910964488983154</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B88" s="1">
         <v>1992</v>
       </c>
       <c r="C88" s="1">
-        <v>0.58232682943344116</v>
+        <v>0.64912569522857666</v>
       </c>
     </row>
     <row r="89">
@@ -8843,90 +8855,90 @@
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B90" s="1">
         <v>1993</v>
       </c>
       <c r="C90" s="1">
-        <v>0.52009761333465576</v>
+        <v>0.76235628128051758</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B91" s="1">
         <v>1993</v>
       </c>
       <c r="C91" s="1">
-        <v>0.46181464195251465</v>
+        <v>0.59811538457870483</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" s="1">
         <v>1993</v>
       </c>
       <c r="C92" s="1">
-        <v>0.72517520189285278</v>
+        <v>0.73950403928756714</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B93" s="1">
         <v>1993</v>
       </c>
       <c r="C93" s="1">
-        <v>0.66704374551773071</v>
+        <v>0.588584303855896</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B94" s="1">
         <v>1993</v>
       </c>
       <c r="C94" s="1">
-        <v>0.62471365928649902</v>
+        <v>0.72517520189285278</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B95" s="1">
         <v>1993</v>
       </c>
       <c r="C95" s="1">
-        <v>0.59811538457870483</v>
+        <v>0.66704374551773071</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B96" s="1">
         <v>1993</v>
       </c>
       <c r="C96" s="1">
-        <v>0.64588898420333862</v>
+        <v>0.52009761333465576</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B97" s="1">
         <v>1993</v>
       </c>
       <c r="C97" s="1">
-        <v>0.73950403928756714</v>
+        <v>0.46181464195251465</v>
       </c>
     </row>
     <row r="98">
@@ -8937,40 +8949,40 @@
         <v>1993</v>
       </c>
       <c r="C98" s="1">
-        <v>0.46861493587493896</v>
+        <v>0.4686150848865509</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B99" s="1">
         <v>1993</v>
       </c>
       <c r="C99" s="1">
-        <v>0.76235628128051758</v>
+        <v>0.6247137188911438</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B100" s="1">
         <v>1993</v>
       </c>
       <c r="C100" s="1">
-        <v>0.588584303855896</v>
+        <v>0.6458890438079834</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B101" s="1">
         <v>1994</v>
       </c>
       <c r="C101" s="1">
-        <v>0.57022041082382202</v>
+        <v>0.57920801639556885</v>
       </c>
     </row>
     <row r="102">
@@ -8992,73 +9004,73 @@
         <v>1994</v>
       </c>
       <c r="C103" s="1">
-        <v>0.44156458973884583</v>
+        <v>0.44156473875045776</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B104" s="1">
         <v>1994</v>
       </c>
       <c r="C104" s="1">
-        <v>0.64030486345291138</v>
+        <v>0.62794697284698486</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B105" s="1">
         <v>1994</v>
       </c>
       <c r="C105" s="1">
-        <v>0.58185839653015137</v>
+        <v>0.42962023615837097</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B106" s="1">
         <v>1994</v>
       </c>
       <c r="C106" s="1">
-        <v>0.46889013051986694</v>
+        <v>0.5702204704284668</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B107" s="1">
         <v>1994</v>
       </c>
       <c r="C107" s="1">
-        <v>0.57920801639556885</v>
+        <v>0.58185851573944092</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B108" s="1">
         <v>1994</v>
       </c>
       <c r="C108" s="1">
-        <v>0.62794697284698486</v>
+        <v>0.62858223915100098</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B109" s="1">
         <v>1994</v>
       </c>
       <c r="C109" s="1">
-        <v>0.42962023615837097</v>
+        <v>0.46889013051986694</v>
       </c>
     </row>
     <row r="110">
@@ -9074,112 +9086,112 @@
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B111" s="1">
         <v>1994</v>
       </c>
       <c r="C111" s="1">
-        <v>0.62858223915100098</v>
+        <v>0.6403048038482666</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B112" s="1">
         <v>1995</v>
       </c>
       <c r="C112" s="1">
-        <v>0.63200795650482178</v>
+        <v>0.41258072853088379</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B113" s="1">
         <v>1995</v>
       </c>
       <c r="C113" s="1">
-        <v>0.44390583038330078</v>
+        <v>0.42272546887397766</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B114" s="1">
         <v>1995</v>
       </c>
       <c r="C114" s="1">
-        <v>0.6976122260093689</v>
+        <v>0.49927034974098206</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B115" s="1">
         <v>1995</v>
       </c>
       <c r="C115" s="1">
-        <v>0.41258072853088379</v>
+        <v>0.64665466547012329</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B116" s="1">
         <v>1995</v>
       </c>
       <c r="C116" s="1">
-        <v>0.42272531986236572</v>
+        <v>0.6329382061958313</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B117" s="1">
         <v>1995</v>
       </c>
       <c r="C117" s="1">
-        <v>0.64665460586547852</v>
+        <v>0.44390583038330078</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B118" s="1">
         <v>1995</v>
       </c>
       <c r="C118" s="1">
-        <v>0.5522194504737854</v>
+        <v>0.63200795650482178</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B119" s="1">
         <v>1995</v>
       </c>
       <c r="C119" s="1">
-        <v>0.6329382061958313</v>
+        <v>0.55221956968307495</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B120" s="1">
         <v>1995</v>
       </c>
       <c r="C120" s="1">
-        <v>0.49927031993865967</v>
+        <v>0.53115004301071167</v>
       </c>
     </row>
     <row r="121">
@@ -9195,46 +9207,46 @@
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B122" s="1">
         <v>1995</v>
       </c>
       <c r="C122" s="1">
-        <v>0.53115004301071167</v>
+        <v>0.6976122260093689</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B123" s="1">
         <v>1996</v>
       </c>
       <c r="C123" s="1">
-        <v>0.39096242189407349</v>
+        <v>0.51230144500732422</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B124" s="1">
         <v>1996</v>
       </c>
       <c r="C124" s="1">
-        <v>0.51728004217147827</v>
+        <v>0.55742877721786499</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B125" s="1">
         <v>1996</v>
       </c>
       <c r="C125" s="1">
-        <v>0.51230144500732422</v>
+        <v>0.3909623920917511</v>
       </c>
     </row>
     <row r="126">
@@ -9245,7 +9257,7 @@
         <v>1996</v>
       </c>
       <c r="C126" s="1">
-        <v>0.60673224925994873</v>
+        <v>0.60673218965530396</v>
       </c>
     </row>
     <row r="127">
@@ -9261,13 +9273,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B128" s="1">
         <v>1996</v>
       </c>
       <c r="C128" s="1">
-        <v>0.40419632196426392</v>
+        <v>0.60788112878799438</v>
       </c>
     </row>
     <row r="129">
@@ -9278,18 +9290,18 @@
         <v>1996</v>
       </c>
       <c r="C129" s="1">
-        <v>0.65517681837081909</v>
+        <v>0.65517687797546387</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B130" s="1">
         <v>1996</v>
       </c>
       <c r="C130" s="1">
-        <v>0.60788112878799438</v>
+        <v>0.5474693775177002</v>
       </c>
     </row>
     <row r="131">
@@ -9305,464 +9317,464 @@
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B132" s="1">
         <v>1996</v>
       </c>
       <c r="C132" s="1">
-        <v>0.54746919870376587</v>
+        <v>0.51728010177612305</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B133" s="1">
         <v>1996</v>
       </c>
       <c r="C133" s="1">
-        <v>0.55742877721786499</v>
+        <v>0.40419647097587585</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B134" s="1">
         <v>1997</v>
       </c>
       <c r="C134" s="1">
-        <v>0.49077010154724121</v>
+        <v>0.4766203761100769</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B135" s="1">
         <v>1997</v>
       </c>
       <c r="C135" s="1">
-        <v>0.32360291481018066</v>
+        <v>0.46628725528717041</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B136" s="1">
         <v>1997</v>
       </c>
       <c r="C136" s="1">
-        <v>0.31279775500297546</v>
+        <v>0.36319220066070557</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B137" s="1">
         <v>1997</v>
       </c>
       <c r="C137" s="1">
-        <v>0.63880455493927002</v>
+        <v>0.58705872297286987</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B138" s="1">
         <v>1997</v>
       </c>
       <c r="C138" s="1">
-        <v>0.36319223046302795</v>
+        <v>0.31279775500297546</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B139" s="1">
         <v>1997</v>
       </c>
       <c r="C139" s="1">
-        <v>0.52323973178863525</v>
+        <v>0.32360297441482544</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B140" s="1">
         <v>1997</v>
       </c>
       <c r="C140" s="1">
-        <v>0.58705872297286987</v>
+        <v>0.63880455493927002</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B141" s="1">
         <v>1997</v>
       </c>
       <c r="C141" s="1">
-        <v>0.54630988836288452</v>
+        <v>0.49077016115188599</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B142" s="1">
         <v>1997</v>
       </c>
       <c r="C142" s="1">
-        <v>0.4766203761100769</v>
+        <v>0.54630988836288452</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B143" s="1">
         <v>1997</v>
       </c>
       <c r="C143" s="1">
-        <v>0.59274512529373169</v>
+        <v>0.5232398509979248</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B144" s="1">
         <v>1997</v>
       </c>
       <c r="C144" s="1">
-        <v>0.46628725528717041</v>
+        <v>0.59274512529373169</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B145" s="1">
         <v>1998</v>
       </c>
       <c r="C145" s="1">
-        <v>0.59630757570266724</v>
+        <v>0.48211038112640381</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B146" s="1">
         <v>1998</v>
       </c>
       <c r="C146" s="1">
-        <v>0.46162125468254089</v>
+        <v>0.5547560453414917</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B147" s="1">
         <v>1998</v>
       </c>
       <c r="C147" s="1">
-        <v>0.48211038112640381</v>
+        <v>0.31707972288131714</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B148" s="1">
         <v>1998</v>
       </c>
       <c r="C148" s="1">
-        <v>0.64172524213790894</v>
+        <v>0.58965867757797241</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B149" s="1">
         <v>1998</v>
       </c>
       <c r="C149" s="1">
-        <v>0.30431884527206421</v>
+        <v>0.36470076441764832</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B150" s="1">
         <v>1998</v>
       </c>
       <c r="C150" s="1">
-        <v>0.47571223974227905</v>
+        <v>0.64172530174255371</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B151" s="1">
         <v>1998</v>
       </c>
       <c r="C151" s="1">
-        <v>0.36470076441764832</v>
+        <v>0.46162122488021851</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B152" s="1">
         <v>1998</v>
       </c>
       <c r="C152" s="1">
-        <v>0.5547560453414917</v>
+        <v>0.30431884527206421</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B153" s="1">
         <v>1998</v>
       </c>
       <c r="C153" s="1">
-        <v>0.31707963347434998</v>
+        <v>0.50649648904800415</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B154" s="1">
         <v>1998</v>
       </c>
       <c r="C154" s="1">
-        <v>0.58965873718261719</v>
+        <v>0.59630757570266724</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B155" s="1">
         <v>1998</v>
       </c>
       <c r="C155" s="1">
-        <v>0.5064963698387146</v>
+        <v>0.47571229934692383</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B156" s="1">
         <v>1999</v>
       </c>
       <c r="C156" s="1">
-        <v>0.32475262880325317</v>
+        <v>0.49293419718742371</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B157" s="1">
         <v>1999</v>
       </c>
       <c r="C157" s="1">
-        <v>0.26292935013771057</v>
+        <v>0.54712432622909546</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B158" s="1">
         <v>1999</v>
       </c>
       <c r="C158" s="1">
-        <v>0.47794657945632935</v>
+        <v>0.26292935013771057</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B159" s="1">
         <v>1999</v>
       </c>
       <c r="C159" s="1">
-        <v>0.49293404817581177</v>
+        <v>0.62301039695739746</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B160" s="1">
         <v>1999</v>
       </c>
       <c r="C160" s="1">
-        <v>0.62301027774810791</v>
+        <v>0.58411550521850586</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B161" s="1">
         <v>1999</v>
       </c>
       <c r="C161" s="1">
-        <v>0.54712432622909546</v>
+        <v>0.45835646986961365</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B162" s="1">
         <v>1999</v>
       </c>
       <c r="C162" s="1">
-        <v>0.56796902418136597</v>
+        <v>0.32475262880325317</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B163" s="1">
         <v>1999</v>
       </c>
       <c r="C163" s="1">
-        <v>0.58411550521850586</v>
+        <v>0.27677419781684875</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B164" s="1">
         <v>1999</v>
       </c>
       <c r="C164" s="1">
-        <v>0.27677410840988159</v>
+        <v>0.56796902418136597</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B165" s="1">
         <v>1999</v>
       </c>
       <c r="C165" s="1">
-        <v>0.45835644006729126</v>
+        <v>0.45404598116874695</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B166" s="1">
         <v>1999</v>
       </c>
       <c r="C166" s="1">
-        <v>0.45404598116874695</v>
+        <v>0.47794657945632935</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B167" s="1">
         <v>2000</v>
       </c>
       <c r="C167" s="1">
-        <v>0.42201396822929382</v>
+        <v>0.2089851051568985</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B168" s="1">
         <v>2000</v>
       </c>
       <c r="C168" s="1">
-        <v>0.2089850902557373</v>
+        <v>0.5835496187210083</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B169" s="1">
         <v>2000</v>
       </c>
       <c r="C169" s="1">
-        <v>0.44827747344970703</v>
+        <v>0.50033384561538696</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B170" s="1">
         <v>2000</v>
       </c>
       <c r="C170" s="1">
-        <v>0.5835496187210083</v>
+        <v>0.258649080991745</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B171" s="1">
         <v>2000</v>
       </c>
       <c r="C171" s="1">
-        <v>0.50033384561538696</v>
+        <v>0.57283514738082886</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B172" s="1">
         <v>2000</v>
       </c>
       <c r="C172" s="1">
-        <v>0.2202482670545578</v>
+        <v>0.40225830674171448</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B173" s="1">
         <v>2000</v>
       </c>
       <c r="C173" s="1">
-        <v>0.57283514738082886</v>
+        <v>0.42201396822929382</v>
       </c>
     </row>
     <row r="174">
@@ -9773,62 +9785,62 @@
         <v>2000</v>
       </c>
       <c r="C174" s="1">
-        <v>0.65448093414306641</v>
+        <v>0.65448105335235596</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B175" s="1">
         <v>2000</v>
       </c>
       <c r="C175" s="1">
-        <v>0.4797782301902771</v>
+        <v>0.44827753305435181</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B176" s="1">
         <v>2000</v>
       </c>
       <c r="C176" s="1">
-        <v>0.40225830674171448</v>
+        <v>0.47977837920188904</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B177" s="1">
         <v>2000</v>
       </c>
       <c r="C177" s="1">
-        <v>0.258649080991745</v>
+        <v>0.22024834156036377</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B178" s="1">
         <v>2001</v>
       </c>
       <c r="C178" s="1">
-        <v>0.21049781143665314</v>
+        <v>0.35650911927223206</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B179" s="1">
         <v>2001</v>
       </c>
       <c r="C179" s="1">
-        <v>0.35650911927223206</v>
+        <v>0.46047261357307434</v>
       </c>
     </row>
     <row r="180">
@@ -9844,68 +9856,68 @@
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181" s="1">
         <v>2001</v>
       </c>
       <c r="C181" s="1">
-        <v>0.38224402070045471</v>
+        <v>0.24374882876873016</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B182" s="1">
         <v>2001</v>
       </c>
       <c r="C182" s="1">
-        <v>0.52718102931976318</v>
+        <v>0.53374630212783813</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B183" s="1">
         <v>2001</v>
       </c>
       <c r="C183" s="1">
-        <v>0.53374630212783813</v>
+        <v>0.38224402070045471</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B184" s="1">
         <v>2001</v>
       </c>
       <c r="C184" s="1">
-        <v>0.46047261357307434</v>
+        <v>0.62419956922531128</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B185" s="1">
         <v>2001</v>
       </c>
       <c r="C185" s="1">
-        <v>0.6241995096206665</v>
+        <v>0.40638673305511475</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B186" s="1">
         <v>2001</v>
       </c>
       <c r="C186" s="1">
-        <v>0.40638670325279236</v>
+        <v>0.21049788594245911</v>
       </c>
     </row>
     <row r="187">
@@ -9916,18 +9928,18 @@
         <v>2001</v>
       </c>
       <c r="C187" s="1">
-        <v>0.43619310855865479</v>
+        <v>0.43619322776794434</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B188" s="1">
         <v>2001</v>
       </c>
       <c r="C188" s="1">
-        <v>0.24374881386756897</v>
+        <v>0.52718102931976318</v>
       </c>
     </row>
     <row r="189">
@@ -9943,24 +9955,24 @@
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B190" s="1">
         <v>2002</v>
       </c>
       <c r="C190" s="1">
-        <v>0.36252370476722717</v>
+        <v>0.22995404899120331</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B191" s="1">
         <v>2002</v>
       </c>
       <c r="C191" s="1">
-        <v>0.35768577456474304</v>
+        <v>0.55668246746063232</v>
       </c>
     </row>
     <row r="192">
@@ -9971,106 +9983,106 @@
         <v>2002</v>
       </c>
       <c r="C192" s="1">
-        <v>0.18541979789733887</v>
+        <v>0.18541985750198364</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B193" s="1">
         <v>2002</v>
       </c>
       <c r="C193" s="1">
-        <v>0.22995403409004211</v>
+        <v>0.17504788935184479</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B194" s="1">
         <v>2002</v>
       </c>
       <c r="C194" s="1">
-        <v>0.55668240785598755</v>
+        <v>0.48280033469200134</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B195" s="1">
         <v>2002</v>
       </c>
       <c r="C195" s="1">
-        <v>0.47155171632766724</v>
+        <v>0.37685245275497437</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B196" s="1">
         <v>2002</v>
       </c>
       <c r="C196" s="1">
-        <v>0.40370067954063416</v>
+        <v>0.35768577456474304</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B197" s="1">
         <v>2002</v>
       </c>
       <c r="C197" s="1">
-        <v>0.37685239315032959</v>
+        <v>0.36252370476722717</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B198" s="1">
         <v>2002</v>
       </c>
       <c r="C198" s="1">
-        <v>0.48280033469200134</v>
+        <v>0.40370079874992371</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B199" s="1">
         <v>2002</v>
       </c>
       <c r="C199" s="1">
-        <v>0.17504788935184479</v>
+        <v>0.47155171632766724</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B200" s="1">
         <v>2003</v>
       </c>
       <c r="C200" s="1">
-        <v>0.54822498559951782</v>
+        <v>0.32522851228713989</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B201" s="1">
         <v>2003</v>
       </c>
       <c r="C201" s="1">
-        <v>0.32522851228713989</v>
+        <v>0.16464850306510925</v>
       </c>
     </row>
     <row r="202">
@@ -10081,40 +10093,40 @@
         <v>2003</v>
       </c>
       <c r="C202" s="1">
-        <v>0.35367795825004578</v>
+        <v>0.35367801785469055</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B203" s="1">
         <v>2003</v>
       </c>
       <c r="C203" s="1">
-        <v>0.41257533431053162</v>
+        <v>0.17495974898338318</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B204" s="1">
         <v>2003</v>
       </c>
       <c r="C204" s="1">
-        <v>0.51338875293731689</v>
+        <v>0.20830336213111877</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B205" s="1">
         <v>2003</v>
       </c>
       <c r="C205" s="1">
-        <v>0.20830334722995758</v>
+        <v>0.51338875293731689</v>
       </c>
     </row>
     <row r="206">
@@ -10125,40 +10137,40 @@
         <v>2003</v>
       </c>
       <c r="C206" s="1">
-        <v>0.39114171266555786</v>
+        <v>0.39114180207252502</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B207" s="1">
         <v>2003</v>
       </c>
       <c r="C207" s="1">
-        <v>0.16464850306510925</v>
+        <v>0.5482250452041626</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B208" s="1">
         <v>2003</v>
       </c>
       <c r="C208" s="1">
-        <v>0.17495967447757721</v>
+        <v>0.47197458148002625</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B209" s="1">
         <v>2003</v>
       </c>
       <c r="C209" s="1">
-        <v>0.47197458148002625</v>
+        <v>0.41257533431053162</v>
       </c>
     </row>
     <row r="210">
@@ -10180,106 +10192,106 @@
         <v>2004</v>
       </c>
       <c r="C211" s="1">
-        <v>0.35609304904937744</v>
+        <v>0.3560931384563446</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B212" s="1">
         <v>2004</v>
       </c>
       <c r="C212" s="1">
-        <v>0.29210507869720459</v>
+        <v>0.33774951100349426</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B213" s="1">
         <v>2004</v>
       </c>
       <c r="C213" s="1">
-        <v>0.28915205597877502</v>
+        <v>0.45086407661437988</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B214" s="1">
         <v>2004</v>
       </c>
       <c r="C214" s="1">
-        <v>0.42328673601150513</v>
+        <v>0.13514694571495056</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B215" s="1">
         <v>2004</v>
       </c>
       <c r="C215" s="1">
-        <v>0.36288571357727051</v>
+        <v>0.28915205597877502</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B216" s="1">
         <v>2004</v>
       </c>
       <c r="C216" s="1">
-        <v>0.33774945139884949</v>
+        <v>0.42328673601150513</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B217" s="1">
         <v>2004</v>
       </c>
       <c r="C217" s="1">
-        <v>0.13514694571495056</v>
+        <v>0.14067402482032776</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B218" s="1">
         <v>2004</v>
       </c>
       <c r="C218" s="1">
-        <v>0.50933927297592163</v>
+        <v>0.29210507869720459</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B219" s="1">
         <v>2004</v>
       </c>
       <c r="C219" s="1">
-        <v>0.14067396521568298</v>
+        <v>0.36288571357727051</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B220" s="1">
         <v>2004</v>
       </c>
       <c r="C220" s="1">
-        <v>0.45086407661437988</v>
+        <v>0.50933939218521118</v>
       </c>
     </row>
     <row r="221">
@@ -10295,101 +10307,101 @@
     </row>
     <row r="222">
       <c r="A222" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B222" s="1">
         <v>2005</v>
       </c>
       <c r="C222" s="1">
-        <v>0.25991284847259521</v>
+        <v>0.14824096858501434</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B223" s="1">
         <v>2005</v>
       </c>
       <c r="C223" s="1">
-        <v>0.11580275744199753</v>
+        <v>0.33192741870880127</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B224" s="1">
         <v>2005</v>
       </c>
       <c r="C224" s="1">
-        <v>0.14824096858501434</v>
+        <v>0.32850721478462219</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B225" s="1">
         <v>2005</v>
       </c>
       <c r="C225" s="1">
-        <v>0.32850721478462219</v>
+        <v>0.40589204430580139</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B226" s="1">
         <v>2005</v>
       </c>
       <c r="C226" s="1">
-        <v>0.31558051705360413</v>
+        <v>0.11730733513832092</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B227" s="1">
         <v>2005</v>
       </c>
       <c r="C227" s="1">
-        <v>0.33192732930183411</v>
+        <v>0.25991284847259521</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B228" s="1">
         <v>2005</v>
       </c>
       <c r="C228" s="1">
-        <v>0.11730728298425674</v>
+        <v>0.11580275744199753</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B229" s="1">
         <v>2005</v>
       </c>
       <c r="C229" s="1">
-        <v>0.25522619485855103</v>
+        <v>0.41350287199020386</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B230" s="1">
         <v>2005</v>
       </c>
       <c r="C230" s="1">
-        <v>0.40589204430580139</v>
+        <v>0.3155805766582489</v>
       </c>
     </row>
     <row r="231">
@@ -10400,73 +10412,73 @@
         <v>2005</v>
       </c>
       <c r="C231" s="1">
-        <v>0.5205569863319397</v>
+        <v>0.52055710554122925</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B232" s="1">
         <v>2005</v>
       </c>
       <c r="C232" s="1">
-        <v>0.41350287199020386</v>
+        <v>0.25522619485855103</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B233" s="1">
         <v>2006</v>
       </c>
       <c r="C233" s="1">
-        <v>0.5061829686164856</v>
+        <v>0.10866813361644745</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B234" s="1">
         <v>2006</v>
       </c>
       <c r="C234" s="1">
-        <v>0.39720484614372253</v>
+        <v>0.26006317138671875</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B235" s="1">
         <v>2006</v>
       </c>
       <c r="C235" s="1">
-        <v>0.3151584267616272</v>
+        <v>0.3241945207118988</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B236" s="1">
         <v>2006</v>
       </c>
       <c r="C236" s="1">
-        <v>0.3241945207118988</v>
+        <v>0.31010818481445312</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B237" s="1">
         <v>2006</v>
       </c>
       <c r="C237" s="1">
-        <v>0.26006317138671875</v>
+        <v>0.14031088352203369</v>
       </c>
     </row>
     <row r="238">
@@ -10482,46 +10494,46 @@
     </row>
     <row r="239">
       <c r="A239" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B239" s="1">
         <v>2006</v>
       </c>
       <c r="C239" s="1">
-        <v>0.10866813361644745</v>
+        <v>0.31515854597091675</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B240" s="1">
         <v>2006</v>
       </c>
       <c r="C240" s="1">
-        <v>0.14031088352203369</v>
+        <v>0.11298701167106628</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B241" s="1">
         <v>2006</v>
       </c>
       <c r="C241" s="1">
-        <v>0.31010812520980835</v>
+        <v>0.39720484614372253</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B242" s="1">
         <v>2006</v>
       </c>
       <c r="C242" s="1">
-        <v>0.1129869669675827</v>
+        <v>0.50618308782577515</v>
       </c>
     </row>
     <row r="243">
@@ -10537,35 +10549,35 @@
     </row>
     <row r="244">
       <c r="A244" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B244" s="1">
         <v>2007</v>
       </c>
       <c r="C244" s="1">
-        <v>0.36582031846046448</v>
+        <v>0.248684361577034</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B245" s="1">
         <v>2007</v>
       </c>
       <c r="C245" s="1">
-        <v>0.248684361577034</v>
+        <v>0.099175520241260529</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B246" s="1">
         <v>2007</v>
       </c>
       <c r="C246" s="1">
-        <v>0.29896572232246399</v>
+        <v>0.09538867324590683</v>
       </c>
     </row>
     <row r="247">
@@ -10576,227 +10588,227 @@
         <v>2007</v>
       </c>
       <c r="C247" s="1">
-        <v>0.48914623260498047</v>
+        <v>0.48914635181427002</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B248" s="1">
         <v>2007</v>
       </c>
       <c r="C248" s="1">
-        <v>0.099175482988357544</v>
+        <v>0.36582031846046448</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B249" s="1">
         <v>2007</v>
       </c>
       <c r="C249" s="1">
-        <v>0.09538867324590683</v>
+        <v>0.29413771629333496</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B250" s="1">
         <v>2007</v>
       </c>
       <c r="C250" s="1">
-        <v>0.2253057062625885</v>
+        <v>0.38053852319717407</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B251" s="1">
         <v>2007</v>
       </c>
       <c r="C251" s="1">
-        <v>0.38053852319717407</v>
+        <v>0.2253057062625885</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B252" s="1">
         <v>2007</v>
       </c>
       <c r="C252" s="1">
-        <v>0.29413765668869019</v>
+        <v>0.29896572232246399</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B253" s="1">
         <v>2007</v>
       </c>
       <c r="C253" s="1">
-        <v>0.12703005969524384</v>
+        <v>0.29172149300575256</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B254" s="1">
         <v>2007</v>
       </c>
       <c r="C254" s="1">
-        <v>0.2917214035987854</v>
+        <v>0.12703005969524384</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B255" s="1">
         <v>2008</v>
       </c>
       <c r="C255" s="1">
-        <v>0.29017230868339539</v>
+        <v>0.27924621105194092</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B256" s="1">
         <v>2008</v>
       </c>
       <c r="C256" s="1">
-        <v>0.23460417985916138</v>
+        <v>0.37601467967033386</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B257" s="1">
         <v>2008</v>
       </c>
       <c r="C257" s="1">
-        <v>0.099665626883506775</v>
+        <v>0.22497887909412384</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B258" s="1">
         <v>2008</v>
       </c>
       <c r="C258" s="1">
-        <v>0.27924612164497375</v>
+        <v>0.3017403781414032</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B259" s="1">
         <v>2008</v>
       </c>
       <c r="C259" s="1">
-        <v>0.094903521239757538</v>
+        <v>0.09966566413640976</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B260" s="1">
         <v>2008</v>
       </c>
       <c r="C260" s="1">
-        <v>0.30174040794372559</v>
+        <v>0.094903521239757538</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B261" s="1">
         <v>2008</v>
       </c>
       <c r="C261" s="1">
-        <v>0.12304235994815826</v>
+        <v>0.29017242789268494</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B262" s="1">
         <v>2008</v>
       </c>
       <c r="C262" s="1">
-        <v>0.22497887909412384</v>
+        <v>0.49479299783706665</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B263" s="1">
         <v>2008</v>
       </c>
       <c r="C263" s="1">
-        <v>0.37435775995254517</v>
+        <v>0.23460417985916138</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B264" s="1">
         <v>2008</v>
       </c>
       <c r="C264" s="1">
-        <v>0.37601467967033386</v>
+        <v>0.12304235994815826</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B265" s="1">
         <v>2008</v>
       </c>
       <c r="C265" s="1">
-        <v>0.4947928786277771</v>
+        <v>0.37435773015022278</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B266" s="1">
         <v>2009</v>
       </c>
       <c r="C266" s="1">
-        <v>0.079763144254684448</v>
+        <v>0.20644490420818329</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B267" s="1">
         <v>2009</v>
       </c>
       <c r="C267" s="1">
-        <v>0.34896799921989441</v>
+        <v>0.1033807247877121</v>
       </c>
     </row>
     <row r="268">
@@ -10812,35 +10824,35 @@
     </row>
     <row r="269">
       <c r="A269" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B269" s="1">
         <v>2009</v>
       </c>
       <c r="C269" s="1">
-        <v>0.077561035752296448</v>
+        <v>0.25842037796974182</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B270" s="1">
         <v>2009</v>
       </c>
       <c r="C270" s="1">
-        <v>0.20644490420818329</v>
+        <v>0.24010980129241943</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B271" s="1">
         <v>2009</v>
       </c>
       <c r="C271" s="1">
-        <v>0.25842037796974182</v>
+        <v>0.34128257632255554</v>
       </c>
     </row>
     <row r="272">
@@ -10851,117 +10863,117 @@
         <v>2009</v>
       </c>
       <c r="C272" s="1">
-        <v>0.23349249362945557</v>
+        <v>0.23349259793758392</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B273" s="1">
         <v>2009</v>
       </c>
       <c r="C273" s="1">
-        <v>0.1033807247877121</v>
+        <v>0.077561035752296448</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B274" s="1">
         <v>2009</v>
       </c>
       <c r="C274" s="1">
-        <v>0.34128257632255554</v>
+        <v>0.079763166606426239</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B275" s="1">
         <v>2009</v>
       </c>
       <c r="C275" s="1">
-        <v>0.24010975658893585</v>
+        <v>0.24320155382156372</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B276" s="1">
         <v>2009</v>
       </c>
       <c r="C276" s="1">
-        <v>0.24320156872272491</v>
+        <v>0.34896805882453918</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B277" s="1">
         <v>2010</v>
       </c>
       <c r="C277" s="1">
-        <v>0.078460894525051117</v>
+        <v>0.55985718965530396</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B278" s="1">
         <v>2010</v>
       </c>
       <c r="C278" s="1">
-        <v>0.55985713005065918</v>
+        <v>0.29333716630935669</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B279" s="1">
         <v>2010</v>
       </c>
       <c r="C279" s="1">
-        <v>0.22631639242172241</v>
+        <v>0.20079895853996277</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B280" s="1">
         <v>2010</v>
       </c>
       <c r="C280" s="1">
-        <v>0.29333719611167908</v>
+        <v>0.084331989288330078</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B281" s="1">
         <v>2010</v>
       </c>
       <c r="C281" s="1">
-        <v>0.42053681612014771</v>
+        <v>0.27193650603294373</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B282" s="1">
         <v>2010</v>
       </c>
       <c r="C282" s="1">
-        <v>0.084331974387168884</v>
+        <v>0.22631639242172241</v>
       </c>
     </row>
     <row r="283">
@@ -10977,200 +10989,200 @@
     </row>
     <row r="284">
       <c r="A284" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B284" s="1">
         <v>2010</v>
       </c>
       <c r="C284" s="1">
-        <v>0.20079895853996277</v>
+        <v>0.39537772536277771</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B285" s="1">
         <v>2010</v>
       </c>
       <c r="C285" s="1">
-        <v>0.39537772536277771</v>
+        <v>0.29868385195732117</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B286" s="1">
         <v>2010</v>
       </c>
       <c r="C286" s="1">
-        <v>0.27193644642829895</v>
+        <v>0.42053681612014771</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B287" s="1">
         <v>2010</v>
       </c>
       <c r="C287" s="1">
-        <v>0.29868373274803162</v>
+        <v>0.078460894525051117</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B288" s="1">
         <v>2011</v>
       </c>
       <c r="C288" s="1">
-        <v>0.20845097303390503</v>
+        <v>0.067637830972671509</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B289" s="1">
         <v>2011</v>
       </c>
       <c r="C289" s="1">
-        <v>0.067637830972671509</v>
+        <v>0.20845097303390503</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B290" s="1">
         <v>2011</v>
       </c>
       <c r="C290" s="1">
-        <v>0.26362296938896179</v>
+        <v>0.18279874324798584</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B291" s="1">
         <v>2011</v>
       </c>
       <c r="C291" s="1">
-        <v>0.40484744310379028</v>
+        <v>0.069213427603244781</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B292" s="1">
         <v>2011</v>
       </c>
       <c r="C292" s="1">
-        <v>0.069213412702083588</v>
+        <v>0.33012703061103821</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B293" s="1">
         <v>2011</v>
       </c>
       <c r="C293" s="1">
-        <v>0.33012703061103821</v>
+        <v>0.25143986940383911</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B294" s="1">
         <v>2011</v>
       </c>
       <c r="C294" s="1">
-        <v>0.2592833936214447</v>
+        <v>0.44808390736579895</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B295" s="1">
         <v>2011</v>
       </c>
       <c r="C295" s="1">
-        <v>0.09169304370880127</v>
+        <v>0.40484744310379028</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B296" s="1">
         <v>2011</v>
       </c>
       <c r="C296" s="1">
-        <v>0.18279874324798584</v>
+        <v>0.26362305879592896</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B297" s="1">
         <v>2011</v>
       </c>
       <c r="C297" s="1">
-        <v>0.25143986940383911</v>
+        <v>0.09169304370880127</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B298" s="1">
         <v>2011</v>
       </c>
       <c r="C298" s="1">
-        <v>0.44808384776115417</v>
+        <v>0.25928345322608948</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B299" s="1">
         <v>2012</v>
       </c>
       <c r="C299" s="1">
-        <v>0.24849739670753479</v>
+        <v>0.07153041660785675</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B300" s="1">
         <v>2012</v>
       </c>
       <c r="C300" s="1">
-        <v>0.07153041660785675</v>
+        <v>0.20306950807571411</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B301" s="1">
         <v>2012</v>
       </c>
       <c r="C301" s="1">
-        <v>0.18774847686290741</v>
+        <v>0.093102730810642242</v>
       </c>
     </row>
     <row r="302">
@@ -11181,73 +11193,73 @@
         <v>2012</v>
       </c>
       <c r="C302" s="1">
-        <v>0.39417821168899536</v>
+        <v>0.39417830109596252</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B303" s="1">
         <v>2012</v>
       </c>
       <c r="C303" s="1">
-        <v>0.29430264234542847</v>
+        <v>0.18774847686290741</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B304" s="1">
         <v>2012</v>
       </c>
       <c r="C304" s="1">
-        <v>0.2661164402961731</v>
+        <v>0.074966296553611755</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B305" s="1">
         <v>2012</v>
       </c>
       <c r="C305" s="1">
-        <v>0.25341925024986267</v>
+        <v>0.29430264234542847</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B306" s="1">
         <v>2012</v>
       </c>
       <c r="C306" s="1">
-        <v>0.074966281652450562</v>
+        <v>0.24849739670753479</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B307" s="1">
         <v>2012</v>
       </c>
       <c r="C307" s="1">
-        <v>0.20306950807571411</v>
+        <v>0.25341933965682983</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B308" s="1">
         <v>2012</v>
       </c>
       <c r="C308" s="1">
-        <v>0.093102723360061646</v>
+        <v>0.26611647009849548</v>
       </c>
     </row>
     <row r="309">
@@ -11263,68 +11275,68 @@
     </row>
     <row r="310">
       <c r="A310" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B310" s="1">
         <v>2013</v>
       </c>
       <c r="C310" s="1">
-        <v>0.24414680898189545</v>
+        <v>0.16822740435600281</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B311" s="1">
         <v>2013</v>
       </c>
       <c r="C311" s="1">
-        <v>0.08786262571811676</v>
+        <v>0.31845015287399292</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B312" s="1">
         <v>2013</v>
       </c>
       <c r="C312" s="1">
-        <v>0.24090124666690826</v>
+        <v>0.06742125004529953</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B313" s="1">
         <v>2013</v>
       </c>
       <c r="C313" s="1">
-        <v>0.067421235144138336</v>
+        <v>0.24414685368537903</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B314" s="1">
         <v>2013</v>
       </c>
       <c r="C314" s="1">
-        <v>0.16822740435600281</v>
+        <v>0.43033388257026672</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B315" s="1">
         <v>2013</v>
       </c>
       <c r="C315" s="1">
-        <v>0.31845015287399292</v>
+        <v>0.087862633168697357</v>
       </c>
     </row>
     <row r="316">
@@ -11351,398 +11363,398 @@
     </row>
     <row r="318">
       <c r="A318" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B318" s="1">
         <v>2013</v>
       </c>
       <c r="C318" s="1">
-        <v>0.43033385276794434</v>
+        <v>0.18978457152843475</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B319" s="1">
         <v>2013</v>
       </c>
       <c r="C319" s="1">
-        <v>0.18978457152843475</v>
+        <v>0.253644198179245</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B320" s="1">
         <v>2013</v>
       </c>
       <c r="C320" s="1">
-        <v>0.25364410877227783</v>
+        <v>0.24090121686458588</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B321" s="1">
         <v>2014</v>
       </c>
       <c r="C321" s="1">
-        <v>0.16997730731964111</v>
+        <v>0.34374907612800598</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B322" s="1">
         <v>2014</v>
       </c>
       <c r="C322" s="1">
-        <v>0.085969075560569763</v>
+        <v>0.06915012001991272</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B323" s="1">
         <v>2014</v>
       </c>
       <c r="C323" s="1">
-        <v>0.24370996654033661</v>
+        <v>0.085969075560569763</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B324" s="1">
         <v>2014</v>
       </c>
       <c r="C324" s="1">
-        <v>0.23262196779251099</v>
+        <v>0.1834690123796463</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B325" s="1">
         <v>2014</v>
       </c>
       <c r="C325" s="1">
-        <v>0.29885908961296082</v>
+        <v>0.40817952156066895</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B326" s="1">
         <v>2014</v>
       </c>
       <c r="C326" s="1">
-        <v>0.24299551546573639</v>
+        <v>0.065558426082134247</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B327" s="1">
         <v>2014</v>
       </c>
       <c r="C327" s="1">
-        <v>0.40817946195602417</v>
+        <v>0.23262196779251099</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B328" s="1">
         <v>2014</v>
       </c>
       <c r="C328" s="1">
-        <v>0.34374907612800598</v>
+        <v>0.29885908961296082</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B329" s="1">
         <v>2014</v>
       </c>
       <c r="C329" s="1">
-        <v>0.1834690123796463</v>
+        <v>0.24371007084846497</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B330" s="1">
         <v>2014</v>
       </c>
       <c r="C330" s="1">
-        <v>0.069150105118751526</v>
+        <v>0.24299556016921997</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B331" s="1">
         <v>2014</v>
       </c>
       <c r="C331" s="1">
-        <v>0.065558426082134247</v>
+        <v>0.16997730731964111</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B332" s="1">
         <v>2015</v>
       </c>
       <c r="C332" s="1">
-        <v>0.22623130679130554</v>
+        <v>0.15817548334598541</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B333" s="1">
         <v>2015</v>
       </c>
       <c r="C333" s="1">
-        <v>0.38339507579803467</v>
+        <v>0.22194315493106842</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B334" s="1">
         <v>2015</v>
       </c>
       <c r="C334" s="1">
-        <v>0.3366643488407135</v>
+        <v>0.27573075890541077</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B335" s="1">
         <v>2015</v>
       </c>
       <c r="C335" s="1">
-        <v>0.15817548334598541</v>
+        <v>0.22623139619827271</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B336" s="1">
         <v>2015</v>
       </c>
       <c r="C336" s="1">
-        <v>0.21259991824626923</v>
+        <v>0.058292590081691742</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B337" s="1">
         <v>2015</v>
       </c>
       <c r="C337" s="1">
-        <v>0.22194311022758484</v>
+        <v>0.060602091252803802</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B338" s="1">
         <v>2015</v>
       </c>
       <c r="C338" s="1">
-        <v>0.060602068901062012</v>
+        <v>0.21259991824626923</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B339" s="1">
         <v>2015</v>
       </c>
       <c r="C339" s="1">
-        <v>0.27573072910308838</v>
+        <v>0.38339513540267944</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B340" s="1">
         <v>2015</v>
       </c>
       <c r="C340" s="1">
-        <v>0.17519406974315643</v>
+        <v>0.07815222442150116</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B341" s="1">
         <v>2015</v>
       </c>
       <c r="C341" s="1">
-        <v>0.058292590081691742</v>
+        <v>0.3366643488407135</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B342" s="1">
         <v>2015</v>
       </c>
       <c r="C342" s="1">
-        <v>0.078152216970920563</v>
+        <v>0.17519406974315643</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B343" s="1">
         <v>2016</v>
       </c>
       <c r="C343" s="1">
-        <v>0.33685117959976196</v>
+        <v>0.27921530604362488</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B344" s="1">
         <v>2016</v>
       </c>
       <c r="C344" s="1">
-        <v>0.39402806758880615</v>
+        <v>0.33685117959976196</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B345" s="1">
         <v>2016</v>
       </c>
       <c r="C345" s="1">
-        <v>0.20881190896034241</v>
+        <v>0.050766661763191223</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B346" s="1">
         <v>2016</v>
       </c>
       <c r="C346" s="1">
-        <v>0.22661316394805908</v>
+        <v>0.39402815699577332</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B347" s="1">
         <v>2016</v>
       </c>
       <c r="C347" s="1">
-        <v>0.071564756333827972</v>
+        <v>0.17404685914516449</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B348" s="1">
         <v>2016</v>
       </c>
       <c r="C348" s="1">
-        <v>0.050766654312610626</v>
+        <v>0.23172357678413391</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B349" s="1">
         <v>2016</v>
       </c>
       <c r="C349" s="1">
-        <v>0.27921527624130249</v>
+        <v>0.14770089089870453</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B350" s="1">
         <v>2016</v>
       </c>
       <c r="C350" s="1">
-        <v>0.23172353208065033</v>
+        <v>0.052626557648181915</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B351" s="1">
         <v>2016</v>
       </c>
       <c r="C351" s="1">
-        <v>0.17404685914516449</v>
+        <v>0.22661323845386505</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B352" s="1">
         <v>2016</v>
       </c>
       <c r="C352" s="1">
-        <v>0.05262654647231102</v>
+        <v>0.071564756333827972</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B353" s="1">
         <v>2016</v>
       </c>
       <c r="C353" s="1">
-        <v>0.14770089089870453</v>
+        <v>0.2088119238615036</v>
       </c>
     </row>
   </sheetData>
